--- a/biology/Écologie/Amorce_(munition)/Amorce_(munition).xlsx
+++ b/biology/Écologie/Amorce_(munition)/Amorce_(munition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amorce est un appareil pyrotechnique qui sert à démarrer un processus explosif. 
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire du mot</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le domaine pyrotechnique et des munitions, le nom d'amorce semble avoir d'abord été donné à la poudre qu'on mettait dans le bassinet des armes à feu, ou qui initiaient la mise à feu des fusées, ou  des pétards (Dictionnaire de l'Académie française, dans sa première édition de 1694), la corne servant d'entonnoir pour verser la poudre était dite « corne d'amorce »[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le domaine pyrotechnique et des munitions, le nom d'amorce semble avoir d'abord été donné à la poudre qu'on mettait dans le bassinet des armes à feu, ou qui initiaient la mise à feu des fusées, ou  des pétards (Dictionnaire de l'Académie française, dans sa première édition de 1694), la corne servant d'entonnoir pour verser la poudre était dite « corne d'amorce ». 
 En 1832, le dictionnaire précise que l'amorce désigne tant le « grain de poudre fulminante » qui fait « partir » une arme à piston, ou d'artillerie « en détonant par la percussion » que « le pulvérin qu'on met dans le bassinet d'un fusil, d'un pistolet, ou sur la lumière d'une bouche à feu, ou à des fusées, des pétards, etc., pour y faire prendre feu. »  
 En 1932, la définition pyrotechnique du mot pour l'Académie française est simplifiée : l'amorce désigne la matière explosive servant à communiquer le feu à la charge d'un canon, d'un fusil, d'une mine, etc.
 L'amorce est, dans une munition ou dans un système pyrotechnique destiné à exploser, la partie qui va déclencher l'inflammation de la poudre, destinée à propulser la balle, l'obus ou à déclencher la réaction explosive.
@@ -545,7 +559,9 @@
           <t>Histoire des amorces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La poudre à canon a d'abord été utilisée comme amorce, mais elle ne s'allumait pas si elle était mouillée et n'était pas d'usage facile. C'est pourquoi les militaires l'ont remplacée par des produits chimiques protégés dans une capsule métallique étanche, qu'on appellera naturellement « amorce ». 
 C'est le très sensible et donc dangereux fulminate de mercure qui a été le plus utilisé jusqu'au milieu du XXe siècle. 
@@ -585,7 +601,9 @@
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hormis la poudre à canon d'abord utilisée, la plupart des corps chimiques qui ont été utilisés pour produire les amorces depuis le XIXe siècle sont polluants, non biodégradables et très toxiques et éco-toxique.
 Les tireurs qui respirent la vapeur dégagée au coup de feu sont exposés à l'inhalation de faibles quantités de vapeur de ces produits (mercure, plomb, etc.). Le mercure est le seul métal liquide et qui passe en phase vapeur à température ambiante. C’est-à-dire qu'on le respire après l'explosion d'une amorce, mais que du mercure pourrait être émis dans l'air à la suite de la dégradation du fulminate de mercure des munitions perdues dans l'environnement ou immergées. Son temps de résidence moyen dans l'atmosphère a été estimé à 11 jours.
